--- a/rct229/ruletest_engine/ruletest_jsons/ruletest_spreadsheets/envelope_27.xlsx
+++ b/rct229/ruletest_engine/ruletest_jsons/ruletest_spreadsheets/envelope_27.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/vijay_tadimeti_pnnl_gov/Documents/Desktop/ruleset-checking-tool/rct229/ruletest_engine/ruletest_jsons/ruletest_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="8_{E05F86F4-7F31-47AF-8983-23C461BC44F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D67F6520-D2A2-F440-BC97-B362627CE1E9}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="8_{E05F86F4-7F31-47AF-8983-23C461BC44F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3ECADCBE-B8E2-CF46-A001-01FA6037A32F}"/>
   <bookViews>
-    <workbookView xWindow="2260" yWindow="900" windowWidth="34000" windowHeight="18460" firstSheet="1" activeTab="2" xr2:uid="{6D4BDC1E-634D-4FA4-9728-A76C548BE460}"/>
+    <workbookView xWindow="2240" yWindow="900" windowWidth="34000" windowHeight="18460" firstSheet="1" activeTab="2" xr2:uid="{6D4BDC1E-634D-4FA4-9728-A76C548BE460}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="5" r:id="rId1"/>
@@ -8253,10 +8253,10 @@
   <dimension ref="A1:AZ129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K61" sqref="K61"/>
+      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
